--- a/Put Portfolios/Three Months_OnePointFive.xlsx
+++ b/Put Portfolios/Three Months_OnePointFive.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>729135.0229958274</v>
+        <v>675597.053712557</v>
       </c>
       <c r="E2" t="n">
-        <v>-260301.7071344956</v>
+        <v>-310890.1409110922</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>658460.9708436613</v>
+        <v>607333.8310326289</v>
       </c>
       <c r="E3" t="n">
-        <v>-260301.7071344957</v>
+        <v>-310647.3084088223</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>587786.9186914954</v>
+        <v>539423.0178553058</v>
       </c>
       <c r="E4" t="n">
-        <v>-260301.7071344957</v>
+        <v>-310052.0664039475</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>517112.8665393295</v>
+        <v>472206.7047477813</v>
       </c>
       <c r="E5" t="n">
-        <v>-260301.7071344956</v>
+        <v>-308762.3243292742</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>446438.8143871636</v>
+        <v>406208.8731774882</v>
       </c>
       <c r="E6" t="n">
-        <v>-260301.7071344956</v>
+        <v>-306254.1007173695</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>375764.7622349977</v>
+        <v>342139.1908998294</v>
       </c>
       <c r="E7" t="n">
-        <v>-260301.7071344956</v>
+        <v>-301817.7278128303</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>305090.7100828318</v>
+        <v>280852.5510198783</v>
       </c>
       <c r="E8" t="n">
-        <v>-260301.7071344956</v>
+        <v>-294598.3125105836</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>234416.6579306659</v>
+        <v>223265.8400857319</v>
       </c>
       <c r="E9" t="n">
-        <v>-260301.7071344956</v>
+        <v>-283678.9682625321</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>163742.6057793511</v>
+        <v>170248.4798079459</v>
       </c>
       <c r="E10" t="n">
-        <v>-260301.7071336445</v>
+        <v>-268190.2733581204</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>93068.63334408701</v>
+        <v>122512.3568257817</v>
       </c>
       <c r="E11" t="n">
-        <v>-260301.6274167426</v>
+        <v>-247420.3411580867</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22531.67851430963</v>
+        <v>80526.36045127672</v>
       </c>
       <c r="E12" t="n">
-        <v>-260164.5300943541</v>
+        <v>-220900.2823503938</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-39537.86566919932</v>
+        <v>44472.13977450306</v>
       </c>
       <c r="E13" t="n">
-        <v>-251560.0221256971</v>
+        <v>-188448.4478449695</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-62193.16048559386</v>
+        <v>14245.31501932964</v>
       </c>
       <c r="E14" t="n">
-        <v>-203541.2647899257</v>
+        <v>-150169.2174179451</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-63488.62300590126</v>
+        <v>-10504.85815928121</v>
       </c>
       <c r="E15" t="n">
-        <v>-134162.6751580672</v>
+        <v>-106413.3354143581</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-63495.38653206339</v>
+        <v>-30311.24825098533</v>
       </c>
       <c r="E16" t="n">
-        <v>-63495.38653206339</v>
+        <v>-57713.67032386437</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-63495.38935063643</v>
+        <v>-45815.61187503117</v>
       </c>
       <c r="E17" t="n">
-        <v>7178.662801529499</v>
+        <v>-4711.978765712352</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-63495.38935073755</v>
+        <v>-57699.5603233682</v>
       </c>
       <c r="E18" t="n">
-        <v>77852.7149535943</v>
+        <v>51910.12796814846</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-63495.38935073767</v>
+        <v>-66628.39322438173</v>
       </c>
       <c r="E19" t="n">
-        <v>148526.7671057601</v>
+        <v>111487.3502493328</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-63495.38935073767</v>
+        <v>-73211.62148727816</v>
       </c>
       <c r="E20" t="n">
-        <v>219200.819257926</v>
+        <v>173410.1771686343</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-63495.38935073767</v>
+        <v>-77980.07758581787</v>
       </c>
       <c r="E21" t="n">
-        <v>289874.8714100919</v>
+        <v>237147.7762522924</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-63495.38935073767</v>
+        <v>-81377.01678040577</v>
       </c>
       <c r="E22" t="n">
-        <v>360548.9235622579</v>
+        <v>302256.8922399023</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-63495.38935073767</v>
+        <v>-83759.50742875086</v>
       </c>
       <c r="E23" t="n">
-        <v>431222.9757144238</v>
+        <v>368380.4567737551</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-63495.38935073767</v>
+        <v>-85406.35079227701</v>
       </c>
       <c r="E24" t="n">
-        <v>501897.0278665897</v>
+        <v>435239.6685924268</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-63495.38935073767</v>
+        <v>-86529.33774526852</v>
       </c>
       <c r="E25" t="n">
-        <v>572571.0800187556</v>
+        <v>502622.7368216331</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-63495.38935073767</v>
+        <v>-87285.47444728165</v>
       </c>
       <c r="E26" t="n">
-        <v>643245.1321709215</v>
+        <v>570372.6553018178</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-63495.38935073767</v>
+        <v>-87788.63748457705</v>
       </c>
       <c r="E27" t="n">
-        <v>713919.1843230875</v>
+        <v>638375.5474467204</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>697187.2195040168</v>
+        <v>694216.4670675186</v>
       </c>
       <c r="E2" t="n">
-        <v>-312734.7431341803</v>
+        <v>-365176.2541720475</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>650754.0258195018</v>
+        <v>651391.7267017829</v>
       </c>
       <c r="E3" t="n">
-        <v>-312734.7431341804</v>
+        <v>-364760.4753035152</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>604320.8321349871</v>
+        <v>608789.2403309747</v>
       </c>
       <c r="E4" t="n">
-        <v>-312734.7431341804</v>
+        <v>-364122.4424400554</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>557887.6384504723</v>
+        <v>566492.8122072673</v>
       </c>
       <c r="E5" t="n">
-        <v>-312734.7431341804</v>
+        <v>-363178.3513294948</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>511454.4447659575</v>
+        <v>524603.4868601831</v>
       </c>
       <c r="E6" t="n">
-        <v>-312734.7431341804</v>
+        <v>-361827.1574423111</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>465021.2510814427</v>
+        <v>483238.6697599631</v>
       </c>
       <c r="E7" t="n">
-        <v>-312734.7431341803</v>
+        <v>-359951.455308263</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>418588.0573969278</v>
+        <v>442530.0450826035</v>
       </c>
       <c r="E8" t="n">
-        <v>-312734.7431341804</v>
+        <v>-357419.5607513547</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>372154.8637124131</v>
+        <v>402620.3662299906</v>
       </c>
       <c r="E9" t="n">
-        <v>-312734.7431341804</v>
+        <v>-354088.7203696994</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>325721.6700278982</v>
+        <v>363659.3113837468</v>
       </c>
       <c r="E10" t="n">
-        <v>-312734.7431341804</v>
+        <v>-349809.2559816753</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>279288.4763433838</v>
+        <v>325798.6870936924</v>
       </c>
       <c r="E11" t="n">
-        <v>-312734.7431341801</v>
+        <v>-344429.3610374617</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>232855.2826588713</v>
+        <v>289187.3176008811</v>
       </c>
       <c r="E12" t="n">
-        <v>-312734.7431341778</v>
+        <v>-337800.2112960051</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>186422.088977956</v>
+        <v>253965.9726933188</v>
       </c>
       <c r="E13" t="n">
-        <v>-312734.7431305783</v>
+        <v>-329781.0369692993</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>139988.8968681899</v>
+        <v>220262.664869313</v>
       </c>
       <c r="E14" t="n">
-        <v>-312734.7415558295</v>
+        <v>-320243.825559037</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>93555.93326346733</v>
+        <v>188188.594533654</v>
       </c>
       <c r="E15" t="n">
-        <v>-312734.5114760373</v>
+        <v>-309077.3766604281</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>47135.0128876682</v>
+        <v>157834.9496811679</v>
       </c>
       <c r="E16" t="n">
-        <v>-312722.2381673216</v>
+        <v>-296190.5022786462</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>962.6902493702005</v>
+        <v>129270.684633842</v>
       </c>
       <c r="E17" t="n">
-        <v>-312461.3671211048</v>
+        <v>-281514.2480917041</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-43055.51118764671</v>
+        <v>102541.3206980116</v>
       </c>
       <c r="E18" t="n">
-        <v>-310046.3748736069</v>
+        <v>-265003.0927932665</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-78756.70871492031</v>
+        <v>77668.73800928095</v>
       </c>
       <c r="E19" t="n">
-        <v>-299314.3787163657</v>
+        <v>-246635.1562477291</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-99422.93587581946</v>
+        <v>54651.86779124915</v>
       </c>
       <c r="E20" t="n">
-        <v>-273547.41219275</v>
+        <v>-226411.5072314929</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-106839.5889290479</v>
+        <v>33468.15068185181</v>
       </c>
       <c r="E21" t="n">
-        <v>-234530.8715614636</v>
+        <v>-204354.7051066222</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-108372.1278461294</v>
+        <v>14075.60031164441</v>
       </c>
       <c r="E22" t="n">
-        <v>-189630.2167940304</v>
+        <v>-180506.7362425616</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-108549.7144533841</v>
+        <v>-3584.699212876393</v>
       </c>
       <c r="E23" t="n">
-        <v>-143374.6097167702</v>
+        <v>-154926.5165328144</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-108561.2462309427</v>
+        <v>-19585.83025427157</v>
       </c>
       <c r="E24" t="n">
-        <v>-96952.947809814</v>
+        <v>-127687.1283399416</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-108561.6710392288</v>
+        <v>-34012.16785784121</v>
       </c>
       <c r="E25" t="n">
-        <v>-50520.17893358525</v>
+        <v>-98872.94670924323</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-108561.6800848813</v>
+        <v>-46956.52936097128</v>
       </c>
       <c r="E26" t="n">
-        <v>-4086.994294722928</v>
+        <v>-68576.78897810528</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-108561.6801986811</v>
+        <v>-58517.45667878339</v>
       </c>
       <c r="E27" t="n">
-        <v>42346.19927599204</v>
+        <v>-36897.19706164939</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-108561.6801995467</v>
+        <v>-68796.71424012101</v>
       </c>
       <c r="E28" t="n">
-        <v>88779.39295964128</v>
+        <v>-3935.935388719001</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-108561.6801995509</v>
+        <v>-77897.05990790283</v>
       </c>
       <c r="E29" t="n">
-        <v>135212.5866441518</v>
+        <v>30204.23817776717</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-108561.6801995508</v>
+        <v>-85920.32278656201</v>
       </c>
       <c r="E30" t="n">
-        <v>181645.7803286667</v>
+        <v>65421.49453337603</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-108561.6801995508</v>
+        <v>-92965.80158254837</v>
       </c>
       <c r="E31" t="n">
-        <v>228078.9740131815</v>
+        <v>101616.5349716576</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-108561.6801995508</v>
+        <v>-99128.9806433991</v>
       </c>
       <c r="E32" t="n">
-        <v>274512.1676976964</v>
+        <v>138693.8751450749</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-108561.6801995508</v>
+        <v>-104500.5480686273</v>
       </c>
       <c r="E33" t="n">
-        <v>320945.3613822112</v>
+        <v>176562.8269541147</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-108561.6801995508</v>
+        <v>-109165.6911843728</v>
       </c>
       <c r="E34" t="n">
-        <v>367378.5550667259</v>
+        <v>215138.2030726373</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-108561.6801995508</v>
+        <v>-113203.6388320009</v>
       </c>
       <c r="E35" t="n">
-        <v>413811.7487512408</v>
+        <v>254340.7746592772</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-108561.6801995508</v>
+        <v>-116687.4168555942</v>
       </c>
       <c r="E36" t="n">
-        <v>460244.9424357556</v>
+        <v>294097.5158699519</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-108561.6801995508</v>
+        <v>-119683.7823564026</v>
       </c>
       <c r="E37" t="n">
-        <v>506678.1361202705</v>
+        <v>334341.6696034115</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-108561.6801995508</v>
+        <v>-122253.3031904888</v>
       </c>
       <c r="E38" t="n">
-        <v>553111.3298047852</v>
+        <v>375012.6680035933</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-108561.6801995508</v>
+        <v>-124450.5513346573</v>
       </c>
       <c r="E39" t="n">
-        <v>599544.5234893</v>
+        <v>416055.9390936927</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-108561.6801995508</v>
+        <v>-126324.3817108069</v>
       </c>
       <c r="E40" t="n">
-        <v>645977.7171738149</v>
+        <v>457422.6279518112</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-108561.6801995508</v>
+        <v>-127918.2714855955</v>
       </c>
       <c r="E41" t="n">
-        <v>692410.9108583297</v>
+        <v>499069.2574112907</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-108561.6801995508</v>
+        <v>-129270.6984681084</v>
       </c>
       <c r="E42" t="n">
-        <v>738844.1045428445</v>
+        <v>540957.3496630457</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-108561.6801995508</v>
+        <v>-130415.5407988284</v>
       </c>
       <c r="E43" t="n">
-        <v>785277.2982273592</v>
+        <v>583053.0265665938</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-108561.6801995508</v>
+        <v>-131382.4835054901</v>
       </c>
       <c r="E44" t="n">
-        <v>831710.4919118742</v>
+        <v>625326.6030941999</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-108561.6801995508</v>
+        <v>-132197.4205945316</v>
       </c>
       <c r="E45" t="n">
-        <v>878143.6855963889</v>
+        <v>667752.1852394266</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-108561.6801995508</v>
+        <v>-132882.8440924995</v>
       </c>
       <c r="E46" t="n">
-        <v>924576.8792809036</v>
+        <v>710307.2809757267</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-108561.6801995508</v>
+        <v>-133458.2138251377</v>
       </c>
       <c r="E47" t="n">
-        <v>971010.0729654186</v>
+        <v>752972.4304773564</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-108561.6801995508</v>
+        <v>-133940.3037228403</v>
       </c>
       <c r="E48" t="n">
-        <v>1017443.266649933</v>
+        <v>795730.8598139219</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-108561.6801995508</v>
+        <v>-134343.5220872541</v>
       </c>
       <c r="E49" t="n">
-        <v>1063876.460334448</v>
+        <v>838568.160683776</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-108561.6801995508</v>
+        <v>-134680.2045739165</v>
       </c>
       <c r="E50" t="n">
-        <v>1110309.654018963</v>
+        <v>881471.9974313816</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-108561.6801995508</v>
+        <v>-134960.8796754233</v>
       </c>
       <c r="E51" t="n">
-        <v>1156742.847703478</v>
+        <v>924431.8415641427</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135194.5072669794</v>
       </c>
       <c r="E52" t="n">
-        <v>1203176.041387992</v>
+        <v>967438.7332068547</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135388.6913397363</v>
       </c>
       <c r="E53" t="n">
-        <v>1249609.235072507</v>
+        <v>1010485.068368366</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135549.8684336413</v>
       </c>
       <c r="E54" t="n">
-        <v>1296042.428757022</v>
+        <v>1053564.410508729</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135683.4735242784</v>
       </c>
       <c r="E55" t="n">
-        <v>1342475.622441537</v>
+        <v>1096671.32465236</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135794.0852473176</v>
       </c>
       <c r="E56" t="n">
-        <v>1388908.816126052</v>
+        <v>1139801.232163589</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135885.5523857772</v>
       </c>
       <c r="E57" t="n">
-        <v>1435342.009810566</v>
+        <v>1182950.284259397</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-108561.6801995508</v>
+        <v>-135961.1035214088</v>
       </c>
       <c r="E58" t="n">
-        <v>1481775.203495081</v>
+        <v>1226115.252358034</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-108561.6801995508</v>
+        <v>-136023.441680561</v>
       </c>
       <c r="E59" t="n">
-        <v>1528208.397179596</v>
+        <v>1269293.433433149</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-108561.6801995508</v>
+        <v>-136074.8257017724</v>
       </c>
       <c r="E60" t="n">
-        <v>1574641.590864111</v>
+        <v>1312482.568646206</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-108561.6801995508</v>
+        <v>-136117.139929045</v>
       </c>
       <c r="E61" t="n">
-        <v>1621074.784548626</v>
+        <v>1355680.773653201</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-108561.6801995508</v>
+        <v>-136151.9537005232</v>
       </c>
       <c r="E62" t="n">
-        <v>1667507.978233141</v>
+        <v>1398886.479115991</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1016926.276748977</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-289269.5552226376</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>980372.3550019338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-289266.078929613</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>943818.4332548906</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-289262.6026365887</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>907264.5115078477</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-289259.126343564</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>870710.5897608045</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-289255.6500505395</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>834156.6680137615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-289252.1737575149</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>797602.7462667185</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-289248.6974644903</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>761048.8245196756</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-289245.2211714656</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>724494.9027726323</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-289241.7448784416</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>687940.9810255893</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-289238.268585417</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>651387.0592785463</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-289234.7922923923</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>614833.1375315032</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-289231.3159993679</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>578279.2157844602</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-289227.8397063432</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>541725.294037417</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-289224.3634133189</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>505171.3722903741</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-289220.8871202943</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>468617.450543331</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-289217.4108272697</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>432063.5287962881</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-289213.9345342452</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>395509.6070492449</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-289210.4582412209</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>358955.6853022018</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-289206.9819481962</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>322401.7635551589</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-289203.5056551716</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>285847.8418081158</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-289200.0293621473</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>249293.9200610728</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-289196.5530691226</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>212739.99831403</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-289193.0767760979</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>176186.0765671098</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-289189.6004829506</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>139632.154890071</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-289186.1241199217</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>103078.2474518778</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-289182.6335180473</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66525.45017587124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-289178.0327539863</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>30007.82180380633</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-289138.2630859836</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-6031.182341284427</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-288619.8691910069</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-39128.19402287738</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-285159.4828325323</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63696.5780296361</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-273170.4687992234</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-76177.51929973073</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-249094.0120292505</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-80033.82758226075</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-216392.9222717129</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-80716.43123339798</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-180518.1278827826</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-80784.12173035098</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-144028.420339668</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-80787.87395927415</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-107474.7745285236</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-80787.99119900799</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-70917.49372818989</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-80787.99329285175</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-34360.09778196609</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-80787.99331459182</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2197.300236361421</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-80787.99331472551</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>38754.69827629528</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>75312.09631636235</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>111869.4943564299</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>148426.8923964975</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>184984.290436565</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>221541.6884766326</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>258099.0865167002</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>294656.4845567677</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>331213.8825968353</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>367771.2806369029</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>404328.6786769704</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>440886.0767170381</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>477443.4747571056</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>514000.8727971731</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>550558.2708372407</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>587115.6688773083</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>623673.0669173758</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>660230.4649574434</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>696787.8629975109</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>733345.2610375786</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>769902.6590776461</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>806460.0571177137</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>843017.4551577811</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>879574.8531978488</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>916132.2512379163</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>952689.6492779839</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>989247.0473180516</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1025804.445358119</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1062361.843398187</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1098919.241438254</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1135476.639478322</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-80787.99331472602</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1172034.037518389</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>455780.943255942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-459077.7680068488</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>396264.2408424385</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-459072.1079439181</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>336747.5384289349</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-459066.4478809878</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>277230.8360154319</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-459060.7878180568</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>217714.1336081689</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-459055.1277488858</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>158197.4403898212</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-459049.4584907994</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>98683.28710621198</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-459041.2492979746</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>39327.73994735056</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-458874.433980402</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-17383.65557668967</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-456063.4670280083</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-60552.33483252264</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-439709.7838074071</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-80016.31921183775</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-399651.4057102883</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-84216.49524677843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-344329.2192687949</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-84614.12074378757</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-285204.48228937</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-84630.41676582221</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-225698.4158349707</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-84630.71218967997</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-166176.3487823944</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-84630.71464882931</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-106653.9887651097</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-84630.71465865073</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-47131.62629849715</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-84630.71465867042</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>12390.73617791718</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>71913.09865435118</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>131435.4611307852</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>190957.8236072192</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>250480.1860836532</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>310002.5485600873</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>369524.9110365213</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429047.2735129552</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>488569.6359893893</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>548091.9984658232</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>607614.3609422573</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>667136.7234186913</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>726659.0858951254</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>786181.4483715594</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>845703.8108479934</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>905226.1733244275</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>964748.5358008615</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1024270.898277295</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1083793.26075373</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1143315.623230163</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1202837.985706598</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1262360.348183032</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1321882.710659466</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1381405.0731359</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1440927.435612334</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1500449.798088768</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1559972.160565202</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1619494.523041636</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-84630.71465867043</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1679016.88551807</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>446492.1486267145</v>
+        <v>331523.6185315784</v>
       </c>
       <c r="E2" t="n">
-        <v>-224704.4724436902</v>
+        <v>-305846.7349448348</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>377445.7008707688</v>
+        <v>272645.2829629236</v>
       </c>
       <c r="E3" t="n">
-        <v>-224697.7698837506</v>
+        <v>-296484.1333104476</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>308399.253114823</v>
+        <v>216898.3418457018</v>
       </c>
       <c r="E4" t="n">
-        <v>-224691.0673238112</v>
+        <v>-283990.1372246273</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>239352.8053588773</v>
+        <v>164763.2966187291</v>
       </c>
       <c r="E5" t="n">
-        <v>-224684.3647638716</v>
+        <v>-267884.2452485578</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>170306.3576029337</v>
+        <v>116629.0112785913</v>
       </c>
       <c r="E6" t="n">
-        <v>-224677.6622039299</v>
+        <v>-247777.5933856536</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>101259.9100895313</v>
+        <v>72767.4240492541</v>
       </c>
       <c r="E7" t="n">
-        <v>-224670.959401447</v>
+        <v>-223398.2434119487</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>32214.63909185588</v>
+        <v>33321.0222915706</v>
       </c>
       <c r="E8" t="n">
-        <v>-224663.0800832372</v>
+        <v>-194603.7079665901</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-36488.06413835463</v>
+        <v>-1697.059414524389</v>
       </c>
       <c r="E9" t="n">
-        <v>-224312.6329975625</v>
+        <v>-161380.8524696431</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-95970.28713576384</v>
+        <v>-32392.24102854233</v>
       </c>
       <c r="E10" t="n">
-        <v>-214741.7056790864</v>
+        <v>-123835.0968806189</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-121086.6554461918</v>
+        <v>-58969.97814693406</v>
       </c>
       <c r="E11" t="n">
-        <v>-170804.9236736291</v>
+        <v>-82171.8967959686</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-123778.7430813618</v>
+        <v>-81712.83533352427</v>
       </c>
       <c r="E12" t="n">
-        <v>-104443.8609929138</v>
+        <v>-36673.81677951674</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-123831.3388959818</v>
+        <v>-100956.2241018855</v>
       </c>
       <c r="E13" t="n">
-        <v>-35443.3064916486</v>
+        <v>12323.73165516413</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-123831.5097419662</v>
+        <v>-117065.2748657926</v>
       </c>
       <c r="E14" t="n">
-        <v>33609.67297825227</v>
+        <v>64455.6180942991</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-123831.5098373872</v>
+        <v>-130414.5533054769</v>
       </c>
       <c r="E15" t="n">
-        <v>102662.8231987165</v>
+        <v>119347.2768576569</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-123831.5098373972</v>
+        <v>-141371.5799452063</v>
       </c>
       <c r="E16" t="n">
-        <v>171715.9735145918</v>
+        <v>176631.1874209695</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-123831.5098373972</v>
+        <v>-150284.4719687602</v>
       </c>
       <c r="E17" t="n">
-        <v>240769.123830477</v>
+        <v>235959.2326004577</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-123831.5098373972</v>
+        <v>-157473.548038214</v>
       </c>
       <c r="E18" t="n">
-        <v>309822.2741463623</v>
+        <v>297011.093734046</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-123831.5098373972</v>
+        <v>-163226.427371695</v>
       </c>
       <c r="E19" t="n">
-        <v>378875.4244622476</v>
+        <v>359499.151603607</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-123831.5098373972</v>
+        <v>-167795.993783574</v>
       </c>
       <c r="E20" t="n">
-        <v>447928.5747781328</v>
+        <v>423170.52239477</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-123831.5098373972</v>
+        <v>-171400.5507570463</v>
       </c>
       <c r="E21" t="n">
-        <v>516981.725094018</v>
+        <v>487806.9026243399</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-123831.5098373972</v>
+        <v>-174225.5289044184</v>
       </c>
       <c r="E22" t="n">
-        <v>586034.8754099034</v>
+        <v>553222.86168001</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-123831.5098373972</v>
+        <v>-176426.1898493434</v>
       </c>
       <c r="E23" t="n">
-        <v>655088.0257257886</v>
+        <v>619263.1379381269</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-123831.5098373972</v>
+        <v>-178130.8747456692</v>
       </c>
       <c r="E24" t="n">
-        <v>724141.1760416738</v>
+        <v>685799.3902448431</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-123831.5098373972</v>
+        <v>-179444.4528744163</v>
       </c>
       <c r="E25" t="n">
-        <v>793194.3263575592</v>
+        <v>752726.7493191382</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-123831.5098373972</v>
+        <v>-180451.7243849342</v>
       </c>
       <c r="E26" t="n">
-        <v>862247.4766734444</v>
+        <v>819960.4150116623</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-123831.5098373972</v>
+        <v>-181220.6151026927</v>
       </c>
       <c r="E27" t="n">
-        <v>931300.6269893296</v>
+        <v>887432.4614969459</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-123831.5098373972</v>
+        <v>-181805.0682276151</v>
       </c>
       <c r="E28" t="n">
-        <v>1000353.777305215</v>
+        <v>955088.9455750656</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-123831.5098373972</v>
+        <v>-182247.5881038712</v>
       </c>
       <c r="E29" t="n">
-        <v>1069406.9276211</v>
+        <v>1022887.362901851</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-123831.5098373972</v>
+        <v>-182581.4269446325</v>
       </c>
       <c r="E30" t="n">
-        <v>1138460.077936986</v>
+        <v>1090794.461264132</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-123831.5098373972</v>
+        <v>-182832.4289947463</v>
       </c>
       <c r="E31" t="n">
-        <v>1207513.228252871</v>
+        <v>1158784.39641706</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-123831.5098373972</v>
+        <v>-183020.5607788546</v>
       </c>
       <c r="E32" t="n">
-        <v>1276566.378568756</v>
+        <v>1226837.201835994</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-123831.5098373972</v>
+        <v>-183161.1632745297</v>
       </c>
       <c r="E33" t="n">
-        <v>1345619.528884641</v>
+        <v>1294937.536543362</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-123831.5098373972</v>
+        <v>-183265.9641655726</v>
       </c>
       <c r="E34" t="n">
-        <v>1414672.679200527</v>
+        <v>1363073.672855361</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-123831.5098373972</v>
+        <v>-183343.8874482432</v>
       </c>
       <c r="E35" t="n">
-        <v>1483725.829516412</v>
+        <v>1431236.686775732</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-123831.5098373972</v>
+        <v>-183401.6948588795</v>
       </c>
       <c r="E36" t="n">
-        <v>1552778.979832297</v>
+        <v>1499419.816568138</v>
       </c>
     </row>
   </sheetData>
